--- a/results/2017年第4季.xlsx
+++ b/results/2017年第4季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7572 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>164</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>790,670</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>689,701</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>264,739</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>220,156</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>263,259</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-413,680</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>261,054</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>842,843</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,230,357</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4,492,278</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,375,012</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,163,639</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,492,900</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,216,982</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2,099,435</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-1,361,197</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-628</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,357,803</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6,422,322</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,249,123</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>34,298,324</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16,007,336</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,738,912</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2,283,582</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1,496,599</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6,475,631</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-88,393</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>337,389</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6,354,183</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>45,565,622</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>37,528,808</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>89,342,533</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>303</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10,642,772</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,469,580</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,356,720</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,288,999</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1,751,645</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-102,578</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-181,401</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1,732,031</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>9,068,289</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,822,881</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>35,126,604</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>698</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>495,363</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>284,648</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>172,457</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>145,346</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>300,422</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-109,752</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-216,941</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>270,050</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>585,416</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>53,213</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2,663,363</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>168</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>18,174,618</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,621,847</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>949,419</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>841,530</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-213,145</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-784,748</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-1,116,819</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-478,785</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>24,284,633</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,459,772</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>45,362,668</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,099</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-37,182</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-43,984</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-35,265</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-83,003</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-113,151</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>26,464</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.73</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>455,714</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,521,393</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>306</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5,580,571</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,137,286</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,614,602</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1,327,478</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2,444,403</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-2,535,712</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5,114,947</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>974,044</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>11,222,707</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>14,468,268</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>37,027,452</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,911,443</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>236,945</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54,767</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>36,389</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-66,247</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-61,691</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>50,288</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-120,802</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,957,041</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>996,170</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>5,158,962</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,876,269</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,353,164</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>967,893</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>777,302</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,441,746</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,074,489</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31,147</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>451,365</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10,058,613</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14,839,653</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>35,400,464</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>59</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5,105,472</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>893,187</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>476,760</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>399,601</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>450,625</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-500,928</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-15,913</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-48,754</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>6,928,608</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>6,515,162</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13,886,122</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,947,025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,625,610</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,105,904</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1,150,543</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1,047,809</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-1,226,260</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-1,043,247</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-20,048</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>19,080,501</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16,935,430</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>81,628,960</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>264,739</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40,657</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-29,043</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-24,100</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-25,477</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>20,452</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2,036</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-29,157</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>456,646</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-3.04</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-1.90</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>382,412</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,232,068</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>179</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16,212,219</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6,179,907</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>282,937</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>371,876</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,665,651</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-497,137</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-440,879</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1,181,948</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>23,211,685</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9,954,978</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>28,675,117</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>582,507</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>74,542</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-23,891</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8,355</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>65,516</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>46,358</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-29,808</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>23,817</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,206,160</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2,022,344</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,685,524</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,105,463</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>731,350</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>490,658</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>390,084</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1,406,872</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-946,271</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-530,817</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>520,291</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>6,098,713</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,138,047</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>16,276,452</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,982,896</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,345,418</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>390,503</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>97,914</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-438,174</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-736,202</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1,097,734</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-562,172</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>7,751,227</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,959,636</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>14,870,897</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>86</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>998,225</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>264,337</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39,627</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>33,027</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>153,434</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-62,799</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>122,413</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>730,462</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>281,558</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,537,115</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>98</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,619,106</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>187,772</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93,240</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>76,377</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-35,479</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-52,214</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-342,376</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-107,179</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,798,535</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5,457,634</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,202,652</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>483,081</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>150,463</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>31,589</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>13,504</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>94,360</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-49,096</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>48,676</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>45,809</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>879,063</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>632,301</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2,253,338</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>418.5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3,099,841</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>500,715</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>256,155</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>437,692</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>638,433</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-894,434</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-69,281</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>409,723</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>3,969,716</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,318,304</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>9,099,936</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>64,792</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41,815</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-10,046</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-10,743</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>7,588</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-21,445</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>17,720</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-15,833</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>126,619</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.61</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.98</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>137,973</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>532,509</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>76</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>366,787</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>95,600</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>44,528</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>33,336</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96,303</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-19,160</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-2,766</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>76,436</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>340,136</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,105,713</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,075,402</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,155,119</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>443,469</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-40,539</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-40,350</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-66,944</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-231,718</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>82,631</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-318,909</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,922,778</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>-1.06</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3,294,748</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,707,679</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,303,126</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>601,365</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>212,311</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>193,806</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>441,223</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-81,163</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>386,205</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4,029,884</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,919,402</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8,752,886</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8,279,129</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,105,852</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>456,730</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19,840</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>707,072</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>40,516</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-621,140</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>682,341</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>17,776,787</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6,101,918</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>27,249,948</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3,064</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2,480</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-47,453</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-47,058</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-8,127</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-264,230</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-8,507</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>117,125</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-6.60</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-5.70</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>14,592</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>808,815</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3,692,565</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-932,497</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-1,076,538</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-1,085,940</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-912,921</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-142,185</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1,132,116</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-1,057,086</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>15,904,309</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-15.73</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-4.85</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,563,764</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>22,283,393</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>129</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,839,837</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>480,728</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>297,513</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>231,017</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>133,874</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-87,844</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-88,818</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-68,801</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,264,248</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,134,353</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>4,639,310</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>842,076</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>176,890</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34,452</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>21,454</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>112,971</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>275,232</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>17,992</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,714,647</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>248,661</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3,281,409</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7,253,087</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>991,639</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-340,013</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-213,400</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-174,424</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>145,123</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>342,458</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-577,621</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>21,992,625</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,194,135</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>36,629,218</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>255,364</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13,697</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4,063</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1,070</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>83,508</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>28,003</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>82,848</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>237,308</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>362,108</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,850,663</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>131,678</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>44,130</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3,943</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5,036</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19,093</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-185,473</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>194,943</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-167,057</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>222,280</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>197,783</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>653,232</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>90,245,238</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12,202,168</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8,443,211</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7,496,521</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>20,748,380</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-5,382,281</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-17,763,157</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>13,908,326</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>335,763,892</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>413,821,236</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>667,715,879</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,927,968</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>91,285</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22,899</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-26,314</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-590,556</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-394,617</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>813,702</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-938,721</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>14,860,691</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>13,765,823</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>18,080,761</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>838,960</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>68,457</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>54,213</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>33,982</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-58,869</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-27,846</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>176,682</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-85,787</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,954,048</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>905,285</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>6,030,272</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>481,509</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>272,935</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73,945</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>67,656</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>72,078</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-6,072</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-1,379</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>65,370</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>605,080</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>772,661</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,584,222</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>749,660</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>196,738</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>118,050</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>93,372</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>539,431</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-549,602</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>539,219</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,652,018</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22,492</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>7,102,133</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>223,203</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>23,842</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-5,448</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4,655</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-45,480</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>22,041</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>41,803</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-51,068</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>211,860</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>233,795</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,115,857</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>409,888</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>84,860</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31,668</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>19,958</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>29,216</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-15,130</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-1,823</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>5,969</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>286,227</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>243,952</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,703,054</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>287,729</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>62,748</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2,297</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-8,312</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>53,040</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-5,176</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-29,791</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>49,266</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,022,608</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>914,585</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,885,089</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>583,024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>275,840</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>185,556</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>220,695</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-104,329</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-25,798</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>37,157</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-154,976</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,692,446</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>539,338</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,160,238</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>635,096</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>133,364</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>55,957</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>12,610</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-88,987</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>105,034</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>135,575</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-97,325</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,476,157</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>849,762</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,973,012</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,580,125</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,574,732</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>232,189</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>715,388</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>879,016</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1,746,540</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-1,904,495</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>729,074</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>25,054,726</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11,223,740</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>32,862,642</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>774,580</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>230,670</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-22,372</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>134,013</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>278,631</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-8,339</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-249,844</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>266,682</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>6,118,489</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2,919,361</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>12,242,288</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>94,823,815</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>29,965,286</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2,885,748</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>37,517,204</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>18,095,164</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2,774,448</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-9,755,577</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>13,482,439</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>223,355,260</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>144,095,873</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>414,655,454</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,679,077</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1,309</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-396,397</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-1,151,986</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>478,080</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-254,833</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-52,819</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>49,830</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>8,916,608</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-7.56</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-4.62</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12,117,022</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>23,487,562</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,376,011</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17,477</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-307,160</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-317,803</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>372,575</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-19,432</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-213,922</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>353,066</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>6,351,931</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>12,980,006</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>25,925,358</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>79,132,002</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11,183,410</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5,671,626</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4,294,955</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>20,232,313</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-9,766,235</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-124,916</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>10,472,776</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>150,533,710</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>220,864,627</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>414,858,758</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16,768,786</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8,318,180</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6,526,370</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>21,967,006</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>8,856,782</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>18,359,641</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-17,693,581</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>5,991,853</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>18,664,114</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>86,241,880</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>150,779,302</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>611,032</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>137,018</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>60,444</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-122,743</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>87,544</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-64,796</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-140,373</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>82,419</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7,625,552</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-7.74</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,574,120</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>9,148,117</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,730,388,142</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>105,565,591</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>32,413,367</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>71,583,156</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-59,713,401</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-14,183,792</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>114,937,652</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-83,358,037</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2,235,424,158</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>278,204,005</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3,407,216,613</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5,353,098</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>534,151</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>288,859</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>256,212</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>457,144</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>54,299</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-50,865</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>448,527</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>15,664,718</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>965,592</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>27,062,592</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>12,982,853</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6,201,378</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1,482,726</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1,054,603</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>9,919,900</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>424,603</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-1,507,272</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>9,433,994</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>68,850,273</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>43,699,225</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>105,708,451</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>24,758,819</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>23,815,117</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23,061,852</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>18,659,402</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-387,280</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>29,920,055</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-12,443,239</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-395,089</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>38,588,663</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,612,196</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>80,595,209</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>179,447</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>29,644</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13,239</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>15,161</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>6,647</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-190</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>6,457</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>168,136</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>377,202</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,430,374</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>11,140,715</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1,967,173</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>499,890</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>670,277</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-231,972</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-401,706</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1,838,850</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-865,317</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>35,397,394</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>18,466,249</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>56,465,505</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>27,119,426</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6,126,609</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1,776,572</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>862,965</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3,323,530</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,111,003</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>3,963,337</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>169,453</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>96,192,952</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>105,007,683</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>179,084,255</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>104</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>60,884,739</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>19,401,351</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10,433,785</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8,921,745</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>25,002,381</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-21,551,132</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-196,786</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>14,718,500</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>77,543,542</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>288,707,910</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>451,123,122</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4,362,111</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>554,753</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>39,710</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>70,021</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>301,515</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>254,067</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-12,855</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>251,805</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,029,655</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,086,034</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>13,724,615</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>36,999</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>22,818</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-8,946</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>27,950</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>58,233</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1,512</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>81,469</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>58,163</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,774,688</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,718,245</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>108</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>167,246,243</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>27,824,274</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24,848,819</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>23,239,856</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>11,994,060</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-3,022,309</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-3,026,837</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>8,753,802</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>87,394,242</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>107,858,298</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>431,540,726</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,684,937</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>563,437</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>37,035</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>49,495</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>91,643</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-72,372</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-36,694</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>69,765</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,672,868</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,042,123</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10,276,563</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,831,089</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>876,161</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>107,432</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-4,095</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>113,523</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-54,455</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-430,952</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>54,196</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,962,207</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,885,141</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,659,228</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6,465,657</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,532,067</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>638,788</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>666,806</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,615,641</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,124,061</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-685,810</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>455,608</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,337,920</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>19,758,993</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>37,673,888</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>257</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6,598,595</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,332,174</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>263,849</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,678,459</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-616,583</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>82,238</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-852,862</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4,582,163</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,479,225</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>25,776,787</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>961,069</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>275,521</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>144,606</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>135,584</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>338,116</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-86,622</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-239,478</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>245,273</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>5,118,331</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>7,388,267</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10,647,052</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>37,514,422</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1,038,909</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-1,075,224</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-427,778</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,962,871</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-6,965,839</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>5,284,539</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1,858,526</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>133,391,107</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>97,687,454</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>200,079,897</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,003,034</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>68,251</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-25,348</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-1,180,127</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>331,863</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>148,890</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-320,838</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>361,248</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>22,301,550</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-19.32</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-3.62</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>25,409,597</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>27,758,490</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-2.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>58,183,153</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11,531,720</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,374,002</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2,881,719</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>5,231,892</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-11,137,063</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>6,776,125</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-1,159,559</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>261,227,187</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>152,732,987</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>516,766,280</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>218,100</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7,016</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-12,080</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-17,156</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-61,032</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-20,136</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>70,891</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-72,554</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,365,291</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,710,184</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,496,551</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>42</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>629,403</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>206,651</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92,446</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>79,814</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>102,586</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-33,340</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-41,977</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>68,730</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>494,628</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>700,255</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2,103,116</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>36,630,674</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6,297,660</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,900,847</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,192,691</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>12,898,814</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-6,033,538</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>5,213,507</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>6,794,412</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>180,061,578</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>205,741,681</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>394,099,162</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,419,596</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>431,828</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>224,528</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>175,911</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>418,961</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-167,513</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-148,801</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>238,756</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,027,556</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,480,429</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,684,994</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>495,780</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>49,927</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-50,150</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-56,160</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>167,915</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>277,699</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-50,613</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>109,402</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>631,009</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-1.94</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>989,220</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,110,149</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>31</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,802,619</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,247,116</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>644,715</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>429,716</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,353,965</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,092,866</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-852,582</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1,195,262</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>16,106,250</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>26,657,896</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>41,158,244</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>106,968,344</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,609,698</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,598,548</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,859,451</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-7,677,345</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-1,653,014</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3,857,777</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-7,837,696</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>92,039,438</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,857,063</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>138,801,268</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,296,321</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>779,084</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>131,689</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>59,936</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-54,628</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-45,616</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-12,806</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-102,301</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,286,853</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,714,701</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10,019,605</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>11,901,312</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1,019,837</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>357,345</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>461,629</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-225,364</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>231,835</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>548,388</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-237,176</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>15,491,036</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,983,218</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>27,332,427</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7,726,270</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>398,389</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>143,987</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>118,612</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>222,215</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-7,140</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-205,884</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>216,660</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>8,347,591</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>307,740</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10,961,609</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>797,212</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>332,974</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85,705</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>81,539</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>299,114</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-41,073</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-249,294</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>253,347</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,607,428</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,477,453</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,255,171</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>907,407</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>22,684</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-306,364</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-680,534</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>278,323</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-143,706</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-20,019</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>230,416</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,843,572</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-17.62</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-6.84</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,069,167</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9,364,429</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-2.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,879,449</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>620,580</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>370,917</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>328,063</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>370,322</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-222,511</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-194,944</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>285,929</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,630,429</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,089,228</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,382,316</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>245,863</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>225,052</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-42,094</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>88,604</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-1,081</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1,025,151</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-187,299</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>1,208,933</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1,152,143</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>666,963</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>3,118,694</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>129</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>15,662,382</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4,018,159</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,652,657</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,329,285</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,521,503</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-550,366</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-905,442</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>951,046</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>15,605,646</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>14,129,688</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>31,037,443</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>13,322,046</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2,816,932</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>398,498</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>161,737</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-250,154</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-847,444</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>684,624</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-965,485</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>26,780,349</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>8,264,758</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>47,787,932</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13,275,213</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,004,596</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>836,746</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>747,437</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>948,667</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>793,809</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-801,896</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>658,727</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>34,142,820</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>17,922,299</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>92,016,957</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,277,406</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>208,530</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>52,810</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>45,350</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>420,204</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-41,591</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-151,845</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>401,701</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,412,115</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>982,749</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,152,123</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,979,905</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>973,587</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>272,439</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>253,294</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>681,236</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>47,635</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-1,059,811</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>541,372</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>14,659,408</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,195,102</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>37,052,766</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>254,840,492</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8,391,390</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,446,294</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,186,001</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-8,522,441</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,066,302</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>8,819,528</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-9,568,568</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>254,708,449</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>18,179,367</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>363,356,421</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>270</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>113,956,052</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>15,811,595</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3,754,650</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,202,834</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>13,791,360</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-866,671</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-721,377</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>13,037,557</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>166,216,866</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>15,250,476</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>344,891,169</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>37,120,493</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4,471,848</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>903,937</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,547,626</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>182,357</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-2,041,441</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2,269,594</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-515,958</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>71,394,930</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,991,519</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>108,939,416</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11,759,609</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,558,159</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,794,084</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,623,474</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-472,967</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>1,336,502</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-227,850</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>-702,742</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>12,943,329</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,967,332</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>40,703,769</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15,534,392</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,822,334</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>568,234</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>803,239</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>988,411</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>409,188</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>197,438</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>860,700</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>14,565,348</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,876,017</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>38,797,672</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>222,978</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>89,003</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>37,798</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>37,816</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>26,969</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>139,833</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-63,234</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>26,828</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>380,978</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>25,096</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,096,380</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,598,211</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>254,717</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>106,681</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>93,812</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>321,135</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-275,746</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>69,137</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-68,596</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,583,182</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>836,642</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,822,465</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>168,768</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>141,653</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-67,290</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-92,417</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-4,213</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-6,022</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-4,246</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>245,754</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-6.96</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-5.91</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>31,415</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,526,957</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
